--- a/list.xlsx
+++ b/list.xlsx
@@ -7,15 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="List" r:id="rId3" sheetId="1"/>
+    <sheet name="Second" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -23,37 +21,31 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Init Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Agustín Acosta</t>
-  </si>
-  <si>
-    <t>acostaag98@gmail.com</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>En Proceso</t>
+    <t>ToDo List</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Thu Dec 30 14:06:00 ART 2021</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>cvx</t>
+  </si>
+  <si>
+    <t>xcvxc</t>
+  </si>
+  <si>
+    <t>Thu Dec 30 14:12:00 ART 2021</t>
   </si>
 </sst>
 </file>
@@ -113,21 +105,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="0.0" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.37890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="3.30859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="4.8671875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.49609375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.49609375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="10.875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="0.0" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.0234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.1796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -140,103 +126,80 @@
       <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4363.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4363.0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4363.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4363.0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4363.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4363.0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/list.xlsx
+++ b/list.xlsx
@@ -13,39 +13,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ToDo List</t>
   </si>
   <si>
-    <t>asdas</t>
+    <t>Title</t>
   </si>
   <si>
-    <t>asdasd</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Hola</t>
+  </si>
+  <si>
+    <t>Esta es la descripcion</t>
   </si>
   <si>
     <t>Low</t>
   </si>
   <si>
-    <t>Thu Dec 30 14:06:00 ART 2021</t>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Hacer la comida</t>
+  </si>
+  <si>
+    <t>Cocinar para mi familia una comida rica</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
   <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>cvx</t>
-  </si>
-  <si>
-    <t>xcvxc</t>
-  </si>
-  <si>
-    <t>Thu Dec 30 14:12:00 ART 2021</t>
   </si>
 </sst>
 </file>
@@ -105,15 +111,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="0.0" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.0234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.1796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="36.29296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.5859375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.40625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -126,65 +134,39 @@
       <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
